--- a/OMS/OMS/KvaroviExcel.xlsx
+++ b/OMS/OMS/KvaroviExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID kvara</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Opis Posla</t>
   </si>
   <si>
-    <t>12</t>
+    <t>202311111111_1</t>
   </si>
   <si>
     <t>kuvalo</t>
@@ -38,16 +38,25 @@
     <t>Popravljeno kuvalo</t>
   </si>
   <si>
+    <t>202312121111_1</t>
+  </si>
+  <si>
     <t>srednji nivo</t>
+  </si>
+  <si>
+    <t>hhhhhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>toster</t>
   </si>
   <si>
     <t>visoki nivo</t>
   </si>
   <si>
-    <t>202312121111_1</t>
-  </si>
-  <si>
-    <t>202311111111_1</t>
+    <t>202321234_2</t>
   </si>
 </sst>
 </file>
@@ -94,7 +103,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -130,31 +139,35 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
